--- a/RPO_vitae_data.xlsx
+++ b/RPO_vitae_data.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="grants" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="awards" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="teaching" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="skills" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
     <t xml:space="preserve">degree</t>
   </si>
@@ -188,6 +189,60 @@
   </si>
   <si>
     <t xml:space="preserve">BIOL2114/BIOL6114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analytical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data visualisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">morphological phenetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phylogenomics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population genetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">botanical illustration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphic design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">video production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field + Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fungal isolation and culturing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plant identification and taxonomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bash/unix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r</t>
   </si>
 </sst>
 </file>
@@ -300,6 +355,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -314,7 +378,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.38"/>
@@ -404,11 +468,11 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="48.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.5"/>
@@ -514,11 +578,11 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="76.33"/>
   </cols>
@@ -649,7 +713,7 @@
       <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.24"/>
@@ -686,6 +750,139 @@
       </c>
       <c r="C3" s="4" t="s">
         <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.56"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/RPO_vitae_data.xlsx
+++ b/RPO_vitae_data.xlsx
@@ -200,49 +200,49 @@
     <t xml:space="preserve">Analytical</t>
   </si>
   <si>
+    <t xml:space="preserve">phylogenomics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">population genetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">morphological phenetics</t>
+  </si>
+  <si>
     <t xml:space="preserve">data visualisation</t>
   </si>
   <si>
-    <t xml:space="preserve">morphological phenetics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phylogenomics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">population genetics</t>
-  </si>
-  <si>
     <t xml:space="preserve">Communications</t>
   </si>
   <si>
+    <t xml:space="preserve">graphic design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">video production</t>
+  </si>
+  <si>
     <t xml:space="preserve">botanical illustration</t>
   </si>
   <si>
-    <t xml:space="preserve">graphic design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">photography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">video production</t>
-  </si>
-  <si>
     <t xml:space="preserve">Field + Lab</t>
   </si>
   <si>
+    <t xml:space="preserve">plant identification and taxonomy</t>
+  </si>
+  <si>
     <t xml:space="preserve">fungal isolation and culturing</t>
   </si>
   <si>
-    <t xml:space="preserve">plant identification and taxonomy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Programming</t>
   </si>
   <si>
+    <t xml:space="preserve">r</t>
+  </si>
+  <si>
     <t xml:space="preserve">bash/unix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r</t>
   </si>
 </sst>
 </file>
@@ -355,15 +355,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -375,10 +366,10 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="B2:B13 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.38"/>
@@ -469,10 +460,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="1" sqref="B2:B13 H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="48.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.5"/>
@@ -579,10 +570,10 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="B2:B13 A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="76.33"/>
   </cols>
@@ -710,10 +701,10 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="1" sqref="B2:B13 C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.24"/>
@@ -770,11 +761,11 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.11"/>

--- a/RPO_vitae_data.xlsx
+++ b/RPO_vitae_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
   <si>
     <t xml:space="preserve">degree</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t xml:space="preserve">bash/unix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LaTeX</t>
   </si>
 </sst>
 </file>
@@ -366,10 +369,10 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="B2:B13 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.38"/>
@@ -460,10 +463,10 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="1" sqref="B2:B13 H6"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="48.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.5"/>
@@ -570,10 +573,10 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="1" sqref="B2:B13 A17"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="76.33"/>
   </cols>
@@ -701,10 +704,10 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="1" sqref="B2:B13 C15"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.24"/>
@@ -759,13 +762,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B13"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.11"/>
@@ -874,6 +877,14 @@
       </c>
       <c r="B13" s="0" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/RPO_vitae_data.xlsx
+++ b/RPO_vitae_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
   <si>
     <t xml:space="preserve">degree</t>
   </si>
@@ -86,6 +86,18 @@
     <t xml:space="preserve">amount</t>
   </si>
   <si>
+    <t xml:space="preserve">National Taxonomy Research Grant Program (NTGRP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australian Biological Resources Study (ABRS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systematics of Australian mycorrhizal Ceratobasidium (Ceratobasidiaceae)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$20,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">RSB Seed Funding Grant</t>
   </si>
   <si>
@@ -174,6 +186,21 @@
   </si>
   <si>
     <t xml:space="preserve">semester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biology 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIOL1003/BIOL6035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023 S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Presentation Skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIOL8291</t>
   </si>
   <si>
     <t xml:space="preserve">Data Science for Biologists</t>
@@ -328,24 +355,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -362,7 +393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -374,73 +405,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -456,102 +487,119 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="48.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="48.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>2022</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>33</v>
+      <c r="E6" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -566,122 +614,122 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="76.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="76.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="4" t="n">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="n">
         <v>2022</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>2022</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="0" t="n">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>2022</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>2021</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="0" t="n">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>2017</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="0" t="n">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>2017</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="0" t="n">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>2017</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="4" t="n">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="3" t="n">
         <v>2016</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="0" t="n">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1" t="n">
         <v>2015</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="0" t="n">
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="1" t="n">
         <v>2014</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="0" t="n">
+      <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="1" t="n">
         <v>2012</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="0" t="n">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="n">
         <v>2010</v>
       </c>
     </row>
@@ -697,53 +745,75 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.24"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
+      <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>52</v>
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>52</v>
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -758,133 +828,133 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>56</v>
+      <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>58</v>
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>59</v>
+      <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>60</v>
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>61</v>
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>63</v>
+      <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>64</v>
+      <c r="A7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>65</v>
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>66</v>
+      <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>68</v>
+      <c r="A10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>69</v>
+      <c r="A11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>71</v>
+      <c r="A12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>72</v>
+      <c r="A13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>73</v>
+      <c r="A14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/RPO_vitae_data.xlsx
+++ b/RPO_vitae_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
   <si>
     <t xml:space="preserve">degree</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t xml:space="preserve">award</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANU University-Wide 3-Minute Thesis (3MT) Competition Grand Finalist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANU College of Science 3-Minute Thesis (3MT) Competition: First Place</t>
   </si>
   <si>
     <t xml:space="preserve">ANU Research School of Biology 3-Minute Thesis (3MT) Competition: People's Choice Award</t>
@@ -399,7 +405,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -493,7 +499,7 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -618,10 +624,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -638,26 +644,26 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>2022</v>
+      <c r="B3" s="3" t="n">
+        <v>2023</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="3" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -666,7 +672,7 @@
         <v>42</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,7 +680,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>2017</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,7 +688,7 @@
         <v>44</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -697,8 +703,8 @@
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="3" t="n">
-        <v>2016</v>
+      <c r="B9" s="1" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -706,15 +712,15 @@
         <v>47</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="1" t="n">
-        <v>2014</v>
+      <c r="B11" s="3" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -722,7 +728,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -730,6 +736,22 @@
         <v>50</v>
       </c>
       <c r="B13" s="1" t="n">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1" t="n">
         <v>2010</v>
       </c>
     </row>
@@ -763,57 +785,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -847,114 +869,114 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/RPO_vitae_data.xlsx
+++ b/RPO_vitae_data.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="education" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="grants" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="awards" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="teaching" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="skills" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="education" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="grants" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="awards" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="teaching" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="skills" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
   <si>
     <t xml:space="preserve">degree</t>
   </si>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">Systematics of Australian mycorrhizal Ceratobasidium (Ceratobasidiaceae)</t>
   </si>
   <si>
-    <t xml:space="preserve">$20,000</t>
+    <t xml:space="preserve">$16,818</t>
   </si>
   <si>
     <t xml:space="preserve">RSB Seed Funding Grant</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">Australian Orchid Foundation</t>
   </si>
   <si>
-    <t xml:space="preserve">The evolution and diversification of the Australian Diurideae: Understanding the influence of genome size and chromosome number</t>
+    <t xml:space="preserve">The evolution and diversification of the Australian Diurideae: Understanding the influence of genome size and chromosome number (project cancelled and funds returned due to poor field season)</t>
   </si>
   <si>
     <t xml:space="preserve">$10,000</t>
@@ -194,19 +194,13 @@
     <t xml:space="preserve">semester</t>
   </si>
   <si>
-    <t xml:space="preserve">Biology 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIOL1003/BIOL6035</t>
+    <t xml:space="preserve">Research Presentation Skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIOL8291</t>
   </si>
   <si>
     <t xml:space="preserve">2023 S1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research Presentation Skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIOL8291</t>
   </si>
   <si>
     <t xml:space="preserve">Data Science for Biologists</t>
@@ -398,6 +392,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -405,7 +505,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -499,8 +599,8 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -560,7 +660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2022</v>
       </c>
@@ -771,10 +871,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -813,29 +913,18 @@
         <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -869,114 +958,114 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/RPO_vitae_data.xlsx
+++ b/RPO_vitae_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rpodonnell/Library/CloudStorage/Dropbox/GitHub/RPO_CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD26AE2-0D65-ED4A-8B87-7D57745F7388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D7A166-287B-E94E-930A-58F81E865AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="19460" windowHeight="15380" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19460" windowHeight="15380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
   <si>
     <t>degree</t>
   </si>
@@ -164,30 +164,6 @@
   </si>
   <si>
     <t>University of New England Vice-Chancellor's Scholar</t>
-  </si>
-  <si>
-    <t>Berlin Opera Academy Robert Earl White Memorial Scholarship</t>
-  </si>
-  <si>
-    <t>Berlin Opera Academy Elizabeth Luxon Memorial Scholarship</t>
-  </si>
-  <si>
-    <t>Pacific Opera Young Artist Scholarship</t>
-  </si>
-  <si>
-    <t>Estivo European Chamber Music Summer School Scholarship</t>
-  </si>
-  <si>
-    <t>Best Comedic Film: Tampa Bay Underground Film Festival</t>
-  </si>
-  <si>
-    <t>Best Short Film: Melbourne Underground Film Festival</t>
-  </si>
-  <si>
-    <t>Firstdraft Gallery Emerging Writers Residency</t>
-  </si>
-  <si>
-    <t>University of Sydney Kathleen Garnham Laurence Prize for Fine Arts</t>
   </si>
   <si>
     <t>title</t>
@@ -470,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -681,10 +657,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B15" sqref="A8:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -746,70 +722,6 @@
       </c>
       <c r="B7">
         <v>2021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15">
-        <v>2010</v>
       </c>
     </row>
   </sheetData>
@@ -838,57 +750,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -905,7 +817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -918,138 +830,138 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
